--- a/IT系统后阶段开发时间计划表-第四版.xlsx
+++ b/IT系统后阶段开发时间计划表-第四版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28500" windowHeight="4068"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28500" windowHeight="4068" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总体" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,89 +260,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>站点资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级站点资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲盟账号申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲盟数据检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：目前只做系统组，因为详细需求还需主管回来之后确定，其他组与系统组类似不作赘述。——张顺|2016-10-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析模块开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统组模块相关功能开发测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌面组模块相关功能开发测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件组模块相关功能开发测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析（实际为数据分析+报表模块）详细时间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时只整理出系统组，其他组以此类推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vpn账号登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMO、邮箱账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OA账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印机登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理电脑登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小仓巴枪电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>园区wifi管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话线分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分拨点宽带ASDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分拨点监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分拨点电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分拨点监控材料申请清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM费用报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内件收发登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>硬件组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1，统计功能：年、月、周、日
+2，导出Excle方案讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>桌面组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>站点资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级站点资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哲盟账号申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哲盟数据检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，统计功能：年、月、周
-2，导出Excle功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张顺
-黄光辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：目前只做系统组，因为详细需求还需主管回来之后确定，其他组与系统组类似不作赘述。——张顺|2016-10-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析模块开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统组模块相关功能开发测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桌面组模块相关功能开发测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件组模块相关功能开发测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析（实际为数据分析+报表模块）详细时间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时只整理出系统组，其他组以此类推</t>
+    <t xml:space="preserve">1，桌面组需求整理
+2，系统组模块修改
+3，统计功能：年、月、周、日
+4，导出Excle接口设计与实现
+5，导出Excle功能实现与补全
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1，硬件组需求整理
+2，之前模块修改
+3，统计功能：年、月、周、日
+4，导出Excle功能补全
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -685,15 +761,84 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,6 +847,12 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -712,17 +863,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -733,65 +878,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -802,34 +902,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1114,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1146,54 +1245,54 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="52" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
     </row>
     <row r="3" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="62" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="69" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="73" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1209,16 +1308,16 @@
       <c r="I4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="60">
+      <c r="C5" s="52">
         <v>1</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1227,402 +1326,402 @@
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="41">
         <v>42653</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="59">
         <v>42658</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="58">
         <v>6</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="48"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="65"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="66"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="63"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="10"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="57"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="66"/>
-      <c r="D7" s="46"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="63"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="58"/>
       <c r="J7" s="10"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="57"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="66"/>
-      <c r="D8" s="46"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="63"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="58"/>
       <c r="J8" s="10"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="57"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="66"/>
-      <c r="D9" s="46"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="63"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="10"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="57"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="66"/>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="61"/>
-      <c r="D10" s="47"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="63"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="11"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="57"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="45">
+      <c r="C11" s="47">
         <v>2</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="41">
         <v>42660</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="41">
         <v>42665</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="62">
         <v>6</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="42" t="s">
+      <c r="L11" s="47"/>
+      <c r="M11" s="67" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="40"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="11"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="43"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="13" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="40"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="11"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="43"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="68"/>
     </row>
     <row r="14" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="40"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="11"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="43"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="68"/>
     </row>
     <row r="15" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="40"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="11"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="43"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="68"/>
     </row>
     <row r="16" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
-      <c r="D16" s="47"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="41"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="11"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="44"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="69"/>
     </row>
     <row r="17" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="46">
+      <c r="C17" s="48">
         <v>3</v>
       </c>
-      <c r="D17" s="45" t="s">
-        <v>75</v>
+      <c r="D17" s="47" t="s">
+        <v>71</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="41">
         <v>42667</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="41">
         <v>42686</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="62">
         <v>17</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="42" t="s">
+      <c r="L17" s="47"/>
+      <c r="M17" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="40"/>
+        <v>73</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="11"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="43"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="68"/>
     </row>
     <row r="19" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="40"/>
+        <v>74</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="11"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="43"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="68"/>
     </row>
     <row r="20" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="25"/>
-      <c r="D20" s="46"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="40"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="11"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="43"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="68"/>
     </row>
     <row r="21" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="25"/>
-      <c r="D21" s="47"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="41"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="11"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="44"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="69"/>
     </row>
     <row r="22" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="46">
+      <c r="C22" s="48">
         <v>4</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="47" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="41">
         <v>42686</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="41">
         <v>42693</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="62">
         <v>6</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="42" t="s">
+      <c r="L22" s="47"/>
+      <c r="M22" s="67" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="40"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="11"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="43"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="68"/>
     </row>
     <row r="24" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="40"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="11"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="43"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="68"/>
     </row>
     <row r="25" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="40"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="63"/>
       <c r="J25" s="11"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="43"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="68"/>
     </row>
     <row r="26" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="40"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="63"/>
       <c r="J26" s="11"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="43"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="68"/>
     </row>
     <row r="27" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="41"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="11"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="44"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="69"/>
     </row>
     <row r="28" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="60">
+      <c r="C28" s="52">
         <v>5</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
@@ -1631,38 +1730,38 @@
       <c r="F28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="41">
         <v>42695</v>
       </c>
-      <c r="H28" s="65">
+      <c r="H28" s="59">
         <v>42698</v>
       </c>
-      <c r="I28" s="63">
+      <c r="I28" s="58">
         <v>3</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="42" t="s">
+      <c r="L28" s="47"/>
+      <c r="M28" s="67" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="61"/>
-      <c r="D29" s="64"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="63"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="10"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="44"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="69"/>
     </row>
     <row r="30" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="15">
@@ -1692,10 +1791,10 @@
       <c r="M30" s="31"/>
     </row>
     <row r="31" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="60">
+      <c r="C31" s="52">
         <v>7</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="55" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="17" t="s">
@@ -1704,36 +1803,36 @@
       <c r="F31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="41">
         <v>42700</v>
       </c>
-      <c r="H31" s="65">
+      <c r="H31" s="59">
         <v>42702</v>
       </c>
-      <c r="I31" s="63">
+      <c r="I31" s="58">
         <v>3</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="48"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="65"/>
     </row>
     <row r="32" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="61"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="63"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="13"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="49"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="72"/>
     </row>
     <row r="33" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="24">
@@ -1763,18 +1862,18 @@
       <c r="M33" s="29"/>
     </row>
     <row r="34" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
       <c r="M34" s="35"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.25">
@@ -1813,18 +1912,30 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="L17:L21"/>
+    <mergeCell ref="M17:M21"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="M5:M10"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="C34:L34"/>
@@ -1841,34 +1952,22 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:H32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="M5:M10"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G11:G16"/>
     <mergeCell ref="H17:H21"/>
     <mergeCell ref="I17:I21"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="L17:L21"/>
-    <mergeCell ref="M17:M21"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="M28:M29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1878,16 +1977,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:N26"/>
+  <dimension ref="D2:S24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
     <col min="7" max="7" width="30.77734375" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" customWidth="1"/>
@@ -1896,381 +1995,492 @@
     <col min="14" max="14" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14" ht="4.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="4:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-    </row>
-    <row r="4" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="79" t="s">
+    <row r="2" spans="4:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="4:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+    </row>
+    <row r="4" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="J4" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="79" t="s">
+      <c r="L4" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="42" t="s">
+    <row r="5" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="84">
+      <c r="F5" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="79">
         <v>42667</v>
       </c>
-      <c r="J5" s="84">
+      <c r="J5" s="79">
         <v>42672</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="84"/>
+      <c r="H6" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="43"/>
-    </row>
-    <row r="7" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="68"/>
+    </row>
+    <row r="7" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="84"/>
+      <c r="H7" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="43"/>
-    </row>
-    <row r="8" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="68"/>
+    </row>
+    <row r="8" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="85"/>
+      <c r="H8" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="44"/>
-    </row>
-    <row r="9" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="43"/>
-      <c r="E9" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="69"/>
+    </row>
+    <row r="9" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="68"/>
+      <c r="E9" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="93">
+        <v>42674</v>
+      </c>
+      <c r="J9" s="93">
+        <v>42679</v>
+      </c>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-    </row>
-    <row r="10" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+    </row>
+    <row r="10" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="84"/>
+      <c r="H10" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-    </row>
-    <row r="11" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+    </row>
+    <row r="11" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="84"/>
+      <c r="H11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-    </row>
-    <row r="12" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+    </row>
+    <row r="12" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="84"/>
+      <c r="H12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-    </row>
-    <row r="13" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="84"/>
+      <c r="H13" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-    </row>
-    <row r="14" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+    </row>
+    <row r="14" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="84"/>
+      <c r="H14" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-    </row>
-    <row r="15" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="18"/>
+    </row>
+    <row r="15" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="84"/>
+      <c r="H15" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="43"/>
-      <c r="E16" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="18"/>
+    </row>
+    <row r="16" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="85"/>
+      <c r="H16" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-    </row>
-    <row r="17" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="68"/>
+      <c r="E17" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="93">
+        <v>42681</v>
+      </c>
+      <c r="J17" s="93">
+        <v>42686</v>
+      </c>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-    </row>
-    <row r="18" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="84"/>
+      <c r="H18" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-    </row>
-    <row r="19" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="18"/>
+    </row>
+    <row r="19" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="84"/>
+      <c r="H19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-    </row>
-    <row r="20" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="18"/>
+    </row>
+    <row r="20" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="84"/>
+      <c r="H20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-    </row>
-    <row r="21" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="18"/>
+    </row>
+    <row r="21" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="84"/>
+      <c r="H21" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
       <c r="K21" s="31"/>
       <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-    </row>
-    <row r="22" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="84"/>
+      <c r="H22" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-    </row>
-    <row r="23" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+    </row>
+    <row r="23" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-    </row>
-    <row r="24" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-    </row>
-    <row r="25" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-    </row>
-    <row r="26" spans="4:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="82"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+    </row>
+    <row r="24" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="77"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="E16:E25"/>
-    <mergeCell ref="D26:N26"/>
+  <mergeCells count="19">
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="I9:I16"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="G9:G16"/>
+    <mergeCell ref="M9:M16"/>
+    <mergeCell ref="N9:N16"/>
+    <mergeCell ref="J9:J16"/>
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="D24:N24"/>
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="D3:N3"/>
-    <mergeCell ref="D5:D25"/>
+    <mergeCell ref="D5:D23"/>
     <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="H5:H8"/>
     <mergeCell ref="N5:N8"/>
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="J5:J8"/>

--- a/IT系统后阶段开发时间计划表-第四版.xlsx
+++ b/IT系统后阶段开发时间计划表-第四版.xlsx
@@ -770,34 +770,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -809,10 +826,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -827,56 +868,38 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -893,6 +916,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -901,35 +930,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1213,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H17" sqref="H17:H21"/>
     </sheetView>
   </sheetViews>
@@ -1245,54 +1245,54 @@
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="60" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="40" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="39" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="73" t="s">
+      <c r="M3" s="52" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1308,16 +1308,16 @@
       <c r="I4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="74"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="52">
+      <c r="C5" s="68">
         <v>1</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1326,402 +1326,402 @@
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="62">
         <v>42653</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="75">
         <v>42658</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="74">
         <v>6</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="65"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="53"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="58"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="10"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="66"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="65"/>
     </row>
     <row r="7" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="53"/>
-      <c r="D7" s="48"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="58"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="10"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="66"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="65"/>
     </row>
     <row r="8" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="53"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="58"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="74"/>
       <c r="J8" s="10"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="66"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="65"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="53"/>
-      <c r="D9" s="48"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="58"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="10"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="66"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="65"/>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="54"/>
-      <c r="D10" s="42"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="58"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="74"/>
       <c r="J10" s="11"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="66"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="47">
+      <c r="C11" s="46">
         <v>2</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="46" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="62">
         <v>42660</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="62">
         <v>42665</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="59">
         <v>6</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="67" t="s">
+      <c r="L11" s="46"/>
+      <c r="M11" s="49" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="63"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="60"/>
       <c r="J12" s="11"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="68"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="50"/>
     </row>
     <row r="13" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="63"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="60"/>
       <c r="J13" s="11"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="68"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="50"/>
     </row>
     <row r="14" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="63"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="60"/>
       <c r="J14" s="11"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="68"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="63"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="60"/>
       <c r="J15" s="11"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="68"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="50"/>
     </row>
     <row r="16" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
-      <c r="D16" s="42"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="64"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="61"/>
       <c r="J16" s="11"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="69"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="51"/>
     </row>
     <row r="17" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="48">
+      <c r="C17" s="47">
         <v>3</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="46" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="62">
         <v>42667</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="62">
         <v>42686</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="59">
         <v>17</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="67" t="s">
+      <c r="L17" s="46"/>
+      <c r="M17" s="49" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="63"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="11"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="68"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="50"/>
     </row>
     <row r="19" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="63"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="11"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="68"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="50"/>
     </row>
     <row r="20" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="25"/>
-      <c r="D20" s="48"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="63"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="60"/>
       <c r="J20" s="11"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="68"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="50"/>
     </row>
     <row r="21" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="25"/>
-      <c r="D21" s="42"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="64"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="11"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="69"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="51"/>
     </row>
     <row r="22" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="48">
+      <c r="C22" s="47">
         <v>4</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="62">
         <v>42686</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="62">
         <v>42693</v>
       </c>
-      <c r="I22" s="62">
+      <c r="I22" s="59">
         <v>6</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="67" t="s">
+      <c r="L22" s="46"/>
+      <c r="M22" s="49" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="63"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="11"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="68"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="50"/>
     </row>
     <row r="24" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="63"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="11"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="68"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="50"/>
     </row>
     <row r="25" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="63"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="60"/>
       <c r="J25" s="11"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="68"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="50"/>
     </row>
     <row r="26" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="63"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="60"/>
       <c r="J26" s="11"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="68"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="50"/>
     </row>
     <row r="27" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="64"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="11"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="69"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="51"/>
     </row>
     <row r="28" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="52">
+      <c r="C28" s="68">
         <v>5</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="70" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
@@ -1730,38 +1730,38 @@
       <c r="F28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="62">
         <v>42695</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H28" s="75">
         <v>42698</v>
       </c>
-      <c r="I28" s="58">
+      <c r="I28" s="74">
         <v>3</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="67" t="s">
+      <c r="L28" s="46"/>
+      <c r="M28" s="49" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
       <c r="E29" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="58"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="10"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="69"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="51"/>
     </row>
     <row r="30" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="15">
@@ -1791,10 +1791,10 @@
       <c r="M30" s="31"/>
     </row>
     <row r="31" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="52">
+      <c r="C31" s="68">
         <v>7</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="70" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="17" t="s">
@@ -1803,36 +1803,36 @@
       <c r="F31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="62">
         <v>42700</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H31" s="75">
         <v>42702</v>
       </c>
-      <c r="I31" s="58">
+      <c r="I31" s="74">
         <v>3</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="65"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="44"/>
     </row>
     <row r="32" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="58"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="13"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="72"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="45"/>
     </row>
     <row r="33" spans="3:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="24">
@@ -1862,18 +1862,18 @@
       <c r="M33" s="29"/>
     </row>
     <row r="34" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
       <c r="M34" s="35"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.25">
@@ -1912,30 +1912,21 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="L17:L21"/>
-    <mergeCell ref="M17:M21"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="M5:M10"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="D5:D10"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="C34:L34"/>
@@ -1952,22 +1943,31 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:H32"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="M5:M10"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="L17:L21"/>
+    <mergeCell ref="M17:M21"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="L31:L32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1977,10 +1977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:S24"/>
+  <dimension ref="D2:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1995,110 +1995,126 @@
     <col min="14" max="14" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="4:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="78" t="s">
+    <row r="2" spans="4:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+    </row>
+    <row r="3" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>37</v>
+      <c r="D4" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="88">
+        <v>42667</v>
+      </c>
+      <c r="J4" s="88">
+        <v>42672</v>
+      </c>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="49" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>93</v>
-      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="81"/>
       <c r="H5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="79">
-        <v>42667</v>
-      </c>
-      <c r="J5" s="79">
-        <v>42672</v>
-      </c>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="67" t="s">
-        <v>76</v>
-      </c>
+      <c r="M5" s="92"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="81"/>
+      <c r="H6" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="68"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="84"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="82"/>
       <c r="H7" s="37" t="s">
         <v>94</v>
       </c>
@@ -2106,385 +2122,368 @@
       <c r="J7" s="90"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="68"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="51"/>
     </row>
     <row r="8" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="83">
+        <v>42674</v>
+      </c>
+      <c r="J8" s="83">
+        <v>42679</v>
+      </c>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="69"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="68"/>
-      <c r="E9" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="83" t="s">
-        <v>96</v>
-      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="81"/>
       <c r="H9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="93">
-        <v>42674</v>
-      </c>
-      <c r="J9" s="93">
-        <v>42679</v>
-      </c>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
       <c r="M9" s="65"/>
       <c r="N9" s="65"/>
     </row>
     <row r="10" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="84"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="81"/>
       <c r="H10" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
     </row>
     <row r="11" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="84"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="81"/>
       <c r="H11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
     </row>
     <row r="12" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="81"/>
+      <c r="H12" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="P12" s="18"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="P12" s="43"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
     </row>
     <row r="13" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="87" t="s">
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="81"/>
+      <c r="H13" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="P13" s="92"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="P13" s="43"/>
       <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
+      <c r="R13" s="43"/>
       <c r="S13" s="18"/>
     </row>
     <row r="14" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="87" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="81"/>
+      <c r="H14" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="P14" s="92"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="P14" s="43"/>
       <c r="Q14" s="18"/>
-      <c r="R14" s="92"/>
+      <c r="R14" s="43"/>
       <c r="S14" s="18"/>
     </row>
     <row r="15" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="87" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="P15" s="92"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="P15" s="43"/>
       <c r="Q15" s="18"/>
-      <c r="R15" s="92"/>
+      <c r="R15" s="43"/>
       <c r="S15" s="18"/>
     </row>
     <row r="16" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="85"/>
-      <c r="H16" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="83">
+        <v>42681</v>
+      </c>
+      <c r="J16" s="83">
+        <v>42686</v>
+      </c>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="P16" s="92"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="P16" s="43"/>
       <c r="Q16" s="18"/>
-      <c r="R16" s="92"/>
+      <c r="R16" s="43"/>
       <c r="S16" s="18"/>
     </row>
     <row r="17" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="68"/>
-      <c r="E17" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="83" t="s">
-        <v>97</v>
-      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="81"/>
       <c r="H17" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="93">
-        <v>42681</v>
-      </c>
-      <c r="J17" s="93">
-        <v>42686</v>
-      </c>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="P17" s="92"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="P17" s="43"/>
       <c r="Q17" s="18"/>
-      <c r="R17" s="92"/>
+      <c r="R17" s="43"/>
       <c r="S17" s="18"/>
     </row>
     <row r="18" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="84"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="81"/>
       <c r="H18" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="P18" s="92"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="P18" s="43"/>
       <c r="Q18" s="18"/>
-      <c r="R18" s="92"/>
+      <c r="R18" s="43"/>
       <c r="S18" s="18"/>
     </row>
     <row r="19" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="84"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="81"/>
       <c r="H19" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="P19" s="92"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
-      <c r="R19" s="92"/>
+      <c r="R19" s="43"/>
       <c r="S19" s="18"/>
     </row>
     <row r="20" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="81"/>
+      <c r="H20" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
-      <c r="R20" s="92"/>
+      <c r="R20" s="18"/>
       <c r="S20" s="18"/>
     </row>
     <row r="21" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="87" t="s">
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="81"/>
+      <c r="H21" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
       <c r="K21" s="31"/>
       <c r="L21" s="31"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
     </row>
     <row r="22" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="87" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="82"/>
+      <c r="H22" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
     </row>
     <row r="23" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="86" t="s">
-        <v>91</v>
-      </c>
+      <c r="D23" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="85"/>
-      <c r="H23" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="86"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
     </row>
-    <row r="24" spans="4:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="77"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="I9:I16"/>
-    <mergeCell ref="I17:I23"/>
-    <mergeCell ref="G9:G16"/>
-    <mergeCell ref="M9:M16"/>
-    <mergeCell ref="N9:N16"/>
-    <mergeCell ref="J9:J16"/>
-    <mergeCell ref="J17:J23"/>
-    <mergeCell ref="D24:N24"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="D3:N3"/>
-    <mergeCell ref="D5:D23"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="D2:N2"/>
+    <mergeCell ref="D4:D22"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="M8:M15"/>
+    <mergeCell ref="N8:N15"/>
+    <mergeCell ref="J8:J15"/>
+    <mergeCell ref="J16:J22"/>
+    <mergeCell ref="D23:N23"/>
+    <mergeCell ref="E8:E15"/>
+    <mergeCell ref="G16:G22"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="I8:I15"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="G8:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
